--- a/data/SRA_accessions_v2.xlsx
+++ b/data/SRA_accessions_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0A73C3-CA8A-4A40-B5AE-3CDCBD942378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C6794B-23AB-A54B-A568-50AA75A3FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11200" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="10" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
   </bookViews>
   <sheets>
     <sheet name="accessions" sheetId="1" r:id="rId1"/>
@@ -4711,8 +4711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B871B2A-C45A-C246-8CB8-86481A6FB925}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4952,15 +4952,15 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{DD8F780E-691C-DA4A-9C2B-C94B4399BC7C}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{A3A68A52-45E4-9246-8B6B-F20084BA88E1}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{E9786E44-C3E8-CE45-A0A2-9BB706A027C5}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{DF3DD699-E817-1343-AF0F-DF8E45C700DA}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{3F787850-E11B-4E4C-B428-A5C52A907381}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{1DF3BAD9-C40A-6545-87FF-1D7DC3B8A95A}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{62FA44B0-8CCB-B748-B221-614579B12607}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{63B459A7-56FC-DC4F-BF52-6F2B942E9F72}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{DEE9B50F-B4F6-D74A-82E4-8D7E71B7C410}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{4D557DDE-4D7A-3E43-A407-68DC13F48378}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{31F3B9C6-33EE-9B4A-BD7D-269B20F25EE5}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{F0DA30E7-17DB-4747-8AC3-8F41CD5BF15D}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{3F787850-E11B-4E4C-B428-A5C52A907381}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{1DF3BAD9-C40A-6545-87FF-1D7DC3B8A95A}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{62FA44B0-8CCB-B748-B221-614579B12607}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{63B459A7-56FC-DC4F-BF52-6F2B942E9F72}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{DEE9B50F-B4F6-D74A-82E4-8D7E71B7C410}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{4D557DDE-4D7A-3E43-A407-68DC13F48378}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{31F3B9C6-33EE-9B4A-BD7D-269B20F25EE5}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{F0DA30E7-17DB-4747-8AC3-8F41CD5BF15D}"/>
+    <hyperlink ref="E5" r:id="rId12" xr:uid="{DF3DD699-E817-1343-AF0F-DF8E45C700DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6423,7 +6423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAC5751-DE21-C64F-AF44-30216D53620C}">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8779,7 +8779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57653EE-FEBD-F847-9CF3-A87C21CBE70F}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/SRA_accessions_v2.xlsx
+++ b/data/SRA_accessions_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C6794B-23AB-A54B-A568-50AA75A3FC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06072956-510F-C248-8A40-F96F3CAF42AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
+    <workbookView xWindow="11360" yWindow="500" windowWidth="39840" windowHeight="15980" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
   </bookViews>
   <sheets>
     <sheet name="accessions" sheetId="1" r:id="rId1"/>
@@ -4712,7 +4712,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8779,8 +8779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57653EE-FEBD-F847-9CF3-A87C21CBE70F}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14461,7 +14461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56220FBB-52F7-1B44-AF16-AE78AF57F1E8}">
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -20560,7 +20560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB49173A-5247-FE4A-A779-005B20076450}">
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>

--- a/data/SRA_accessions_v2.xlsx
+++ b/data/SRA_accessions_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06072956-510F-C248-8A40-F96F3CAF42AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE6DC6-CE6C-A64E-8CED-7DF5646555C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11360" yWindow="500" windowWidth="39840" windowHeight="15980" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
   </bookViews>
   <sheets>
     <sheet name="accessions" sheetId="1" r:id="rId1"/>
@@ -4712,7 +4712,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/SRA_accessions_v2.xlsx
+++ b/data/SRA_accessions_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24BAE363-E988-2541-B744-F30887A00C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E5800E-7F3F-DD49-B41D-64FCAE4A98E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15560" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15860" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -7404,7 +7404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7414,6 +7414,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7431,7 +7437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7444,7 +7450,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7802,8 +7811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B871B2A-C45A-C246-8CB8-86481A6FB925}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7831,20 +7840,20 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>1060</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="13">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="14" t="s">
         <v>353</v>
       </c>
     </row>
@@ -7950,105 +7959,105 @@
         <v>797</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="13">
         <v>6</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="14" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="9">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="13">
         <v>12</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="14" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="13" t="s">
         <v>1090</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="13">
         <v>59</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="14" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="9">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>1235</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="15" t="s">
         <v>1233</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="9">
         <v>60</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -33597,7 +33606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBBE9C3-1E60-DE4B-84B2-2FE478D33F00}">
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/SRA_accessions_v2.xlsx
+++ b/data/SRA_accessions_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E5800E-7F3F-DD49-B41D-64FCAE4A98E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181CEDDC-D476-7246-B4ED-2ECF34356917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="15860" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
+    <workbookView xWindow="21980" yWindow="1660" windowWidth="28800" windowHeight="15860" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -7812,7 +7812,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/SRA_accessions_v2.xlsx
+++ b/data/SRA_accessions_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanbergland/Documents/GitHub/CompEvoBio_modules/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181CEDDC-D476-7246-B4ED-2ECF34356917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BE44FE-60D7-5A43-AE0B-B986A9FBACBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21980" yWindow="1660" windowWidth="28800" windowHeight="15860" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="30240" windowHeight="17200" activeTab="9" xr2:uid="{8289C7F0-2534-2949-8E35-6B8C80360F30}"/>
   </bookViews>
   <sheets>
     <sheet name="Papers" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <definedName name="SraRunInfo_9" localSheetId="8">PRJNA315172!$A$1:$AU$7</definedName>
     <definedName name="SraRunTable" localSheetId="1">'SRP002024'!$A$1:$Z$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7811,7 +7811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B871B2A-C45A-C246-8CB8-86481A6FB925}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -8088,7 +8088,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7EF8695-0682-C246-B3D4-9D8FAA46D659}">
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
